--- a/BASE 2025.xlsx
+++ b/BASE 2025.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\CÓDIGO PARA O GIT\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DA8E87-591A-48C7-9EF9-D0D9BB62F5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="21480" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="602">
   <si>
     <t>Nome</t>
   </si>
@@ -46,297 +52,9 @@
     <t>Sigla</t>
   </si>
   <si>
-    <t>Perfil 1412/2025</t>
-  </si>
-  <si>
-    <t>Data de início 1412/2025</t>
-  </si>
-  <si>
-    <t>AMADEU ALVES DA SILVA</t>
-  </si>
-  <si>
-    <t>AMANDA DE SOUSA ROCHA</t>
-  </si>
-  <si>
-    <t>EDSON TRUS</t>
-  </si>
-  <si>
-    <t>ELIAS DE JESUS PRINCE</t>
-  </si>
-  <si>
-    <t>EMERSON NASCIMENTO SILVA</t>
-  </si>
-  <si>
-    <t>HELENA DOS ANJOS DIAS</t>
-  </si>
-  <si>
-    <t>KARIN BEZ</t>
-  </si>
-  <si>
-    <t>LUIZ CARLOS DE LIMA SILVA</t>
-  </si>
-  <si>
-    <t>PEDRO RICARDO CAZELATO</t>
-  </si>
-  <si>
-    <t>RITA DE CASSIA SILVA DE SOUZA</t>
-  </si>
-  <si>
-    <t>ROGERIO MIRANDA BISPO</t>
-  </si>
-  <si>
-    <t>VITOR SCHMIDT PEREIRA DA SILVA</t>
-  </si>
-  <si>
-    <t>ALEXSANDRO GONCALVES MENDES</t>
-  </si>
-  <si>
-    <t>MARCELO DOS SANTOS BRANDAO</t>
-  </si>
-  <si>
-    <t>BORES JOSE BORREIHO</t>
-  </si>
-  <si>
-    <t>DANIELA NOGUEIRA ALVES ZAMBON BATISTA</t>
-  </si>
-  <si>
-    <t>EDISON JOTA CARNEIRO</t>
-  </si>
-  <si>
-    <t>JOAO BATISTA SILVA</t>
-  </si>
-  <si>
-    <t>VICTORIA REGIA DIAS CARDOSO</t>
-  </si>
-  <si>
-    <t>SERGIO ALEXANDRE DE AGUIAR VAZ</t>
-  </si>
-  <si>
-    <t>FATIMA ROSARIO BRAGA</t>
-  </si>
-  <si>
-    <t>RHANNE SAMIR ASAD GHANY</t>
-  </si>
-  <si>
-    <t>EDUARDO NICE</t>
-  </si>
-  <si>
     <t>COLABORADOR 1</t>
   </si>
   <si>
-    <t>ANTONIO CARLOS SOUSA FERREIRA</t>
-  </si>
-  <si>
-    <t>CARLOS ALBERTO RIBEIRO SILVA</t>
-  </si>
-  <si>
-    <t>FABIO PALUDETTO</t>
-  </si>
-  <si>
-    <t>FRANCISCO DAS CHAGAS</t>
-  </si>
-  <si>
-    <t>IGOR RODRIGUES MACHADO</t>
-  </si>
-  <si>
-    <t>JOELSON NASCIMENTO ALVES DE PAULA</t>
-  </si>
-  <si>
-    <t>MADSON TRINDADE GONCALVES</t>
-  </si>
-  <si>
-    <t>MARCELO DOS SANTOS VIANNA JUNIOR</t>
-  </si>
-  <si>
-    <t>MARCELO PEREIRA DE CASTRO</t>
-  </si>
-  <si>
-    <t>MARCUS VICTOR DOS SANTOS VIANNA</t>
-  </si>
-  <si>
-    <t>MARCUS VINICIUS ALVES DE SANTANA</t>
-  </si>
-  <si>
-    <t>MILTON VIEIRA</t>
-  </si>
-  <si>
-    <t>PAULO ROBERTO ALVES</t>
-  </si>
-  <si>
-    <t>RICARDO SIMOES KLEIN</t>
-  </si>
-  <si>
-    <t>THAIS DE CASTRO BARBOSA DOS SANTOS</t>
-  </si>
-  <si>
-    <t>WAGNER MITO KAMIMURA</t>
-  </si>
-  <si>
-    <t>WALSON DE MORAIS RIBEIRO</t>
-  </si>
-  <si>
-    <t>PAULO MANOEL LOPES CORDEIRO</t>
-  </si>
-  <si>
-    <t>BONIFACIO PACHECO DA SILVA</t>
-  </si>
-  <si>
-    <t>FRANCISCO OLIVEIRA E SILVA</t>
-  </si>
-  <si>
-    <t>LUIS RICARDO FIGUEIREDO RAMOS</t>
-  </si>
-  <si>
-    <t>FABIANA BATISTA DA SILVA</t>
-  </si>
-  <si>
-    <t>WENDY SOLLANGE ARANA ROSAS</t>
-  </si>
-  <si>
-    <t>LEONARDO BISPO DE FARIAS</t>
-  </si>
-  <si>
-    <t>JANUARIO PEREIRA DO COUTO</t>
-  </si>
-  <si>
-    <t>DANIELA CRISTINA DA SILVA</t>
-  </si>
-  <si>
-    <t>JOAQUIM DAVID DO COUTO</t>
-  </si>
-  <si>
-    <t>MURILO CARDOSO COUTO</t>
-  </si>
-  <si>
-    <t>VANDERLEY TRINDADE PESSOA</t>
-  </si>
-  <si>
-    <t>GUILHERME WERSCHOOR DA CRUZ</t>
-  </si>
-  <si>
-    <t>MARCOS AURELIO PACHECO</t>
-  </si>
-  <si>
-    <t>LUZIA MARIA DO NASCIMENTO</t>
-  </si>
-  <si>
-    <t>PAULO ANDRE PALMA DE CARVALHO</t>
-  </si>
-  <si>
-    <t>NEUZA GOGONI</t>
-  </si>
-  <si>
-    <t>VALERIA GONCALVES BARBOSA</t>
-  </si>
-  <si>
-    <t>EDWARD BELMONDO BUTRON ITURRE</t>
-  </si>
-  <si>
-    <t>LUANA MACEDO DA SILVA</t>
-  </si>
-  <si>
-    <t>LUCIANO SILVA DA ROCHA</t>
-  </si>
-  <si>
-    <t>ARIADNA APARECIDA FERREIRA SANTOS</t>
-  </si>
-  <si>
-    <t>PATRIK DE OLIVEIRA FRANCA</t>
-  </si>
-  <si>
-    <t>RAFAEL BERNARDES PEREIRA</t>
-  </si>
-  <si>
-    <t>JORGE LUIZ TEIXEIRA SILVA</t>
-  </si>
-  <si>
-    <t>BRUNO LENIO RODRIGUES FEIJO DE OLIVEIRA</t>
-  </si>
-  <si>
-    <t>PAULO ANDERSON OLIVEIRA CASTELO</t>
-  </si>
-  <si>
-    <t>RENATA SANTOS DA ROCHA</t>
-  </si>
-  <si>
-    <t>MARCIA TEIXEIRA MONTEIRO DE ARAUJO</t>
-  </si>
-  <si>
-    <t>PAULA FERNANDA MESQUITA DINIZ</t>
-  </si>
-  <si>
-    <t>IAN LUCA NUNES SALES</t>
-  </si>
-  <si>
-    <t>TELMO RICARDO ROSA NASCIMENTO</t>
-  </si>
-  <si>
-    <t>CAIO CALIXTO FASOLAK ALVES</t>
-  </si>
-  <si>
-    <t>LUIZ ANTONIO FERREIRA RODRIGUES</t>
-  </si>
-  <si>
-    <t>LEANDRO TERRA DOS REIS</t>
-  </si>
-  <si>
-    <t>RICARDO CAMILLO PEREIRA</t>
-  </si>
-  <si>
-    <t>EMERSON RODRIGUES BRUNO</t>
-  </si>
-  <si>
-    <t>PAULO ROBERTO DOS SANTOS</t>
-  </si>
-  <si>
-    <t>KATIA MARTINS CASTRO DE ARAUJO</t>
-  </si>
-  <si>
-    <t>GLADSTONE MARTINS PEREIRA</t>
-  </si>
-  <si>
-    <t>RENATO COSTA LIMA</t>
-  </si>
-  <si>
-    <t>JOSE OTAVIO SILVEIRA PAULA</t>
-  </si>
-  <si>
-    <t>MARCO AURELIO DE MELO DA SILVA</t>
-  </si>
-  <si>
-    <t>NAYLA KELLY MEDEIROS LIMA DE MESQUITA</t>
-  </si>
-  <si>
-    <t>SERGIO ANTONIO DE SOUZA LIMA</t>
-  </si>
-  <si>
-    <t>SUZANA MIDORY TAKAO</t>
-  </si>
-  <si>
-    <t>TOMAZ DE AQUINO MENDES NETO</t>
-  </si>
-  <si>
-    <t>RICARDO NERI MARQUES</t>
-  </si>
-  <si>
-    <t>JOAO EDWARD FADDER SOUSA DE MELO</t>
-  </si>
-  <si>
-    <t>RENATO SOARES RODRIGUES</t>
-  </si>
-  <si>
-    <t>INGRID DE ABREU CARVALHO</t>
-  </si>
-  <si>
-    <t>MOISES SILVA DE OLIVEIRA</t>
-  </si>
-  <si>
-    <t>JEAN CARLOS PIGATTO</t>
-  </si>
-  <si>
-    <t>CLEITON MARTINS DA SILVA</t>
-  </si>
-  <si>
     <t>48194946080</t>
   </si>
   <si>
@@ -1774,21 +1492,6 @@
     <t>9230316094</t>
   </si>
   <si>
-    <t>SISFIN - SP</t>
-  </si>
-  <si>
-    <t>SIAPI</t>
-  </si>
-  <si>
-    <t>SIPEN</t>
-  </si>
-  <si>
-    <t>SIRUR</t>
-  </si>
-  <si>
-    <t>SISFIN - DF</t>
-  </si>
-  <si>
     <t>Analista/Desenvolvedor - Alta Plataforma</t>
   </si>
   <si>
@@ -1823,16 +1526,313 @@
   </si>
   <si>
     <t>Especialista - Identidade e Segurança</t>
+  </si>
+  <si>
+    <t>COLABORADOR 3</t>
+  </si>
+  <si>
+    <t>COLABORADOR 2</t>
+  </si>
+  <si>
+    <t>COLABORADOR 4</t>
+  </si>
+  <si>
+    <t>COLABORADOR 5</t>
+  </si>
+  <si>
+    <t>COLABORADOR 6</t>
+  </si>
+  <si>
+    <t>COLABORADOR 7</t>
+  </si>
+  <si>
+    <t>COLABORADOR 8</t>
+  </si>
+  <si>
+    <t>COLABORADOR 9</t>
+  </si>
+  <si>
+    <t>COLABORADOR 10</t>
+  </si>
+  <si>
+    <t>COLABORADOR 11</t>
+  </si>
+  <si>
+    <t>COLABORADOR 12</t>
+  </si>
+  <si>
+    <t>COLABORADOR 13</t>
+  </si>
+  <si>
+    <t>COLABORADOR 14</t>
+  </si>
+  <si>
+    <t>COLABORADOR 15</t>
+  </si>
+  <si>
+    <t>COLABORADOR 16</t>
+  </si>
+  <si>
+    <t>COLABORADOR 17</t>
+  </si>
+  <si>
+    <t>COLABORADOR 18</t>
+  </si>
+  <si>
+    <t>COLABORADOR 19</t>
+  </si>
+  <si>
+    <t>COLABORADOR 20</t>
+  </si>
+  <si>
+    <t>COLABORADOR 21</t>
+  </si>
+  <si>
+    <t>COLABORADOR 22</t>
+  </si>
+  <si>
+    <t>COLABORADOR 23</t>
+  </si>
+  <si>
+    <t>COLABORADOR 24</t>
+  </si>
+  <si>
+    <t>COLABORADOR 25</t>
+  </si>
+  <si>
+    <t>COLABORADOR 26</t>
+  </si>
+  <si>
+    <t>COLABORADOR 27</t>
+  </si>
+  <si>
+    <t>COLABORADOR 28</t>
+  </si>
+  <si>
+    <t>COLABORADOR 29</t>
+  </si>
+  <si>
+    <t>COLABORADOR 30</t>
+  </si>
+  <si>
+    <t>COLABORADOR 31</t>
+  </si>
+  <si>
+    <t>COLABORADOR 32</t>
+  </si>
+  <si>
+    <t>COLABORADOR 33</t>
+  </si>
+  <si>
+    <t>COLABORADOR 34</t>
+  </si>
+  <si>
+    <t>COLABORADOR 35</t>
+  </si>
+  <si>
+    <t>COLABORADOR 36</t>
+  </si>
+  <si>
+    <t>COLABORADOR 37</t>
+  </si>
+  <si>
+    <t>COLABORADOR 38</t>
+  </si>
+  <si>
+    <t>COLABORADOR 39</t>
+  </si>
+  <si>
+    <t>COLABORADOR 40</t>
+  </si>
+  <si>
+    <t>COLABORADOR 41</t>
+  </si>
+  <si>
+    <t>COLABORADOR 42</t>
+  </si>
+  <si>
+    <t>COLABORADOR 43</t>
+  </si>
+  <si>
+    <t>COLABORADOR 44</t>
+  </si>
+  <si>
+    <t>COLABORADOR 45</t>
+  </si>
+  <si>
+    <t>COLABORADOR 46</t>
+  </si>
+  <si>
+    <t>COLABORADOR 47</t>
+  </si>
+  <si>
+    <t>COLABORADOR 48</t>
+  </si>
+  <si>
+    <t>COLABORADOR 49</t>
+  </si>
+  <si>
+    <t>COLABORADOR 50</t>
+  </si>
+  <si>
+    <t>COLABORADOR 51</t>
+  </si>
+  <si>
+    <t>COLABORADOR 52</t>
+  </si>
+  <si>
+    <t>COLABORADOR 53</t>
+  </si>
+  <si>
+    <t>COLABORADOR 54</t>
+  </si>
+  <si>
+    <t>COLABORADOR 55</t>
+  </si>
+  <si>
+    <t>COLABORADOR 56</t>
+  </si>
+  <si>
+    <t>COLABORADOR 57</t>
+  </si>
+  <si>
+    <t>COLABORADOR 58</t>
+  </si>
+  <si>
+    <t>COLABORADOR 59</t>
+  </si>
+  <si>
+    <t>COLABORADOR 60</t>
+  </si>
+  <si>
+    <t>COLABORADOR 61</t>
+  </si>
+  <si>
+    <t>COLABORADOR 62</t>
+  </si>
+  <si>
+    <t>COLABORADOR 63</t>
+  </si>
+  <si>
+    <t>COLABORADOR 64</t>
+  </si>
+  <si>
+    <t>COLABORADOR 65</t>
+  </si>
+  <si>
+    <t>COLABORADOR 66</t>
+  </si>
+  <si>
+    <t>COLABORADOR 67</t>
+  </si>
+  <si>
+    <t>COLABORADOR 68</t>
+  </si>
+  <si>
+    <t>COLABORADOR 69</t>
+  </si>
+  <si>
+    <t>COLABORADOR 70</t>
+  </si>
+  <si>
+    <t>COLABORADOR 71</t>
+  </si>
+  <si>
+    <t>COLABORADOR 72</t>
+  </si>
+  <si>
+    <t>COLABORADOR 73</t>
+  </si>
+  <si>
+    <t>COLABORADOR 74</t>
+  </si>
+  <si>
+    <t>COLABORADOR 75</t>
+  </si>
+  <si>
+    <t>COLABORADOR 76</t>
+  </si>
+  <si>
+    <t>COLABORADOR 77</t>
+  </si>
+  <si>
+    <t>COLABORADOR 78</t>
+  </si>
+  <si>
+    <t>COLABORADOR 79</t>
+  </si>
+  <si>
+    <t>COLABORADOR 80</t>
+  </si>
+  <si>
+    <t>COLABORADOR 81</t>
+  </si>
+  <si>
+    <t>COLABORADOR 82</t>
+  </si>
+  <si>
+    <t>COLABORADOR 83</t>
+  </si>
+  <si>
+    <t>COLABORADOR 84</t>
+  </si>
+  <si>
+    <t>COLABORADOR 85</t>
+  </si>
+  <si>
+    <t>COLABORADOR 86</t>
+  </si>
+  <si>
+    <t>COLABORADOR 87</t>
+  </si>
+  <si>
+    <t>COLABORADOR 88</t>
+  </si>
+  <si>
+    <t>COLABORADOR 89</t>
+  </si>
+  <si>
+    <t>COLABORADOR 90</t>
+  </si>
+  <si>
+    <t>COLABORADOR 91</t>
+  </si>
+  <si>
+    <t>COLABORADOR 92</t>
+  </si>
+  <si>
+    <t>COLABORADOR 93</t>
+  </si>
+  <si>
+    <t>COLABORADOR 94</t>
+  </si>
+  <si>
+    <t>COLABORADOR 95</t>
+  </si>
+  <si>
+    <t>ABC - SP</t>
+  </si>
+  <si>
+    <t>DEF</t>
+  </si>
+  <si>
+    <t>GHI</t>
+  </si>
+  <si>
+    <t>JKL</t>
+  </si>
+  <si>
+    <t>MNO - DF</t>
+  </si>
+  <si>
+    <t>Perfil 2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1844,6 +1844,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1889,20 +1895,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1940,7 +1954,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1974,6 +1988,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2008,9 +2023,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2183,14 +2199,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2222,3614 +2253,3336 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>12</v>
       </c>
       <c r="B2" s="2">
         <v>29243</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>202</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>297</v>
+        <v>201</v>
       </c>
       <c r="F2" s="2">
         <v>32403</v>
       </c>
       <c r="G2" t="s">
-        <v>301</v>
+        <v>205</v>
       </c>
       <c r="H2" t="s">
-        <v>396</v>
+        <v>300</v>
       </c>
       <c r="I2" t="s">
-        <v>491</v>
+        <v>395</v>
       </c>
       <c r="J2" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="K2" t="s">
-        <v>591</v>
-      </c>
-      <c r="L2" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>503</v>
       </c>
       <c r="B3" s="2">
         <v>31803</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>203</v>
+        <v>107</v>
       </c>
       <c r="E3" t="s">
-        <v>298</v>
+        <v>202</v>
       </c>
       <c r="F3" s="2">
         <v>26409</v>
       </c>
       <c r="G3" t="s">
-        <v>302</v>
+        <v>206</v>
       </c>
       <c r="H3" t="s">
-        <v>397</v>
+        <v>301</v>
       </c>
       <c r="I3" t="s">
-        <v>492</v>
+        <v>396</v>
       </c>
       <c r="J3" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="K3" t="s">
-        <v>592</v>
-      </c>
-      <c r="L3" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>502</v>
       </c>
       <c r="B4" s="2">
         <v>24259</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>204</v>
+        <v>108</v>
       </c>
       <c r="E4" t="s">
-        <v>297</v>
+        <v>201</v>
       </c>
       <c r="F4" s="2">
         <v>30205</v>
       </c>
       <c r="G4" t="s">
-        <v>303</v>
+        <v>207</v>
       </c>
       <c r="H4" t="s">
-        <v>398</v>
+        <v>302</v>
       </c>
       <c r="I4" t="s">
-        <v>493</v>
+        <v>397</v>
       </c>
       <c r="J4" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="K4" t="s">
-        <v>591</v>
-      </c>
-      <c r="L4" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>504</v>
       </c>
       <c r="B5" s="2">
         <v>30628</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>205</v>
+        <v>109</v>
       </c>
       <c r="E5" t="s">
-        <v>299</v>
+        <v>203</v>
       </c>
       <c r="F5" s="2">
         <v>24422</v>
       </c>
       <c r="G5" t="s">
-        <v>304</v>
+        <v>208</v>
       </c>
       <c r="H5" t="s">
-        <v>399</v>
+        <v>303</v>
       </c>
       <c r="I5" t="s">
-        <v>494</v>
+        <v>398</v>
       </c>
       <c r="J5" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="K5" t="s">
-        <v>593</v>
-      </c>
-      <c r="L5" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>505</v>
       </c>
       <c r="B6" s="2">
         <v>23033</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>206</v>
+        <v>110</v>
       </c>
       <c r="E6" t="s">
-        <v>298</v>
+        <v>202</v>
       </c>
       <c r="F6" s="2">
         <v>35711</v>
       </c>
       <c r="G6" t="s">
-        <v>305</v>
+        <v>209</v>
       </c>
       <c r="H6" t="s">
-        <v>400</v>
+        <v>304</v>
       </c>
       <c r="I6" t="s">
-        <v>495</v>
+        <v>399</v>
       </c>
       <c r="J6" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="K6" t="s">
-        <v>591</v>
-      </c>
-      <c r="L6" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>506</v>
       </c>
       <c r="B7" s="2">
         <v>24186</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>207</v>
+        <v>111</v>
       </c>
       <c r="E7" t="s">
-        <v>297</v>
+        <v>201</v>
       </c>
       <c r="F7" s="2">
         <v>28436</v>
       </c>
       <c r="G7" t="s">
-        <v>306</v>
+        <v>210</v>
       </c>
       <c r="H7" t="s">
-        <v>401</v>
+        <v>305</v>
       </c>
       <c r="I7" t="s">
-        <v>496</v>
+        <v>400</v>
       </c>
       <c r="J7" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="K7" t="s">
-        <v>591</v>
-      </c>
-      <c r="L7" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>507</v>
       </c>
       <c r="B8" s="2">
         <v>33758</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>208</v>
+        <v>112</v>
       </c>
       <c r="E8" t="s">
-        <v>300</v>
+        <v>204</v>
       </c>
       <c r="F8" s="2">
         <v>31307</v>
       </c>
       <c r="G8" t="s">
-        <v>307</v>
+        <v>211</v>
       </c>
       <c r="H8" t="s">
-        <v>402</v>
+        <v>306</v>
       </c>
       <c r="I8" t="s">
-        <v>497</v>
+        <v>401</v>
       </c>
       <c r="J8" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="K8" t="s">
-        <v>594</v>
-      </c>
-      <c r="L8" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>508</v>
       </c>
       <c r="B9" s="2">
         <v>30987</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>209</v>
+        <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>298</v>
+        <v>202</v>
       </c>
       <c r="F9" s="2">
         <v>29732</v>
       </c>
       <c r="G9" t="s">
-        <v>308</v>
+        <v>212</v>
       </c>
       <c r="H9" t="s">
-        <v>403</v>
+        <v>307</v>
       </c>
       <c r="I9" t="s">
-        <v>498</v>
+        <v>402</v>
       </c>
       <c r="J9" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="K9" t="s">
-        <v>594</v>
-      </c>
-      <c r="L9" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>509</v>
       </c>
       <c r="B10" s="2">
         <v>33957</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>210</v>
+        <v>114</v>
       </c>
       <c r="E10" t="s">
-        <v>300</v>
+        <v>204</v>
       </c>
       <c r="F10" s="2">
         <v>30167</v>
       </c>
       <c r="G10" t="s">
-        <v>309</v>
+        <v>213</v>
       </c>
       <c r="H10" t="s">
-        <v>404</v>
+        <v>308</v>
       </c>
       <c r="I10" t="s">
-        <v>499</v>
+        <v>403</v>
       </c>
       <c r="J10" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="K10" t="s">
-        <v>595</v>
-      </c>
-      <c r="L10" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>510</v>
       </c>
       <c r="B11" s="2">
         <v>31070</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>211</v>
+        <v>115</v>
       </c>
       <c r="E11" t="s">
-        <v>297</v>
+        <v>201</v>
       </c>
       <c r="F11" s="2">
         <v>33655</v>
       </c>
       <c r="G11" t="s">
-        <v>310</v>
+        <v>214</v>
       </c>
       <c r="H11" t="s">
-        <v>405</v>
+        <v>309</v>
       </c>
       <c r="I11" t="s">
-        <v>500</v>
+        <v>404</v>
       </c>
       <c r="J11" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="K11" t="s">
-        <v>595</v>
-      </c>
-      <c r="L11" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>511</v>
       </c>
       <c r="B12" s="2">
         <v>23295</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>212</v>
+        <v>116</v>
       </c>
       <c r="E12" t="s">
-        <v>299</v>
+        <v>203</v>
       </c>
       <c r="F12" s="2">
         <v>35241</v>
       </c>
       <c r="G12" t="s">
-        <v>311</v>
+        <v>215</v>
       </c>
       <c r="H12" t="s">
-        <v>406</v>
+        <v>310</v>
       </c>
       <c r="I12" t="s">
-        <v>501</v>
+        <v>405</v>
       </c>
       <c r="J12" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="K12" t="s">
-        <v>591</v>
-      </c>
-      <c r="L12" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>512</v>
       </c>
       <c r="B13" s="2">
         <v>34715</v>
       </c>
       <c r="C13" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>213</v>
+        <v>117</v>
       </c>
       <c r="E13" t="s">
-        <v>298</v>
+        <v>202</v>
       </c>
       <c r="F13" s="2">
         <v>36830</v>
       </c>
       <c r="G13" t="s">
-        <v>312</v>
+        <v>216</v>
       </c>
       <c r="H13" t="s">
-        <v>407</v>
+        <v>311</v>
       </c>
       <c r="I13" t="s">
-        <v>502</v>
+        <v>406</v>
       </c>
       <c r="J13" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="K13" t="s">
-        <v>591</v>
-      </c>
-      <c r="L13" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>513</v>
       </c>
       <c r="B14" s="2">
         <v>35702</v>
       </c>
       <c r="C14" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>214</v>
+        <v>118</v>
       </c>
       <c r="E14" t="s">
-        <v>300</v>
+        <v>204</v>
       </c>
       <c r="F14" s="2">
         <v>35810</v>
       </c>
       <c r="G14" t="s">
-        <v>313</v>
+        <v>217</v>
       </c>
       <c r="H14" t="s">
-        <v>408</v>
+        <v>312</v>
       </c>
       <c r="I14" t="s">
-        <v>503</v>
+        <v>407</v>
       </c>
       <c r="J14" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="K14" t="s">
-        <v>596</v>
-      </c>
-      <c r="L14" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>514</v>
       </c>
       <c r="B15" s="2">
         <v>32789</v>
       </c>
       <c r="C15" t="s">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>215</v>
+        <v>119</v>
       </c>
       <c r="E15" t="s">
-        <v>300</v>
+        <v>204</v>
       </c>
       <c r="F15" s="2">
         <v>25844</v>
       </c>
       <c r="G15" t="s">
-        <v>314</v>
+        <v>218</v>
       </c>
       <c r="H15" t="s">
-        <v>409</v>
+        <v>313</v>
       </c>
       <c r="I15" t="s">
-        <v>504</v>
+        <v>408</v>
       </c>
       <c r="J15" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="K15" t="s">
-        <v>591</v>
-      </c>
-      <c r="L15" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>515</v>
       </c>
       <c r="B16" s="2">
         <v>34147</v>
       </c>
       <c r="C16" t="s">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>216</v>
+        <v>120</v>
       </c>
       <c r="E16" t="s">
-        <v>297</v>
+        <v>201</v>
       </c>
       <c r="F16" s="2">
         <v>34976</v>
       </c>
       <c r="G16" t="s">
-        <v>315</v>
+        <v>219</v>
       </c>
       <c r="H16" t="s">
-        <v>410</v>
+        <v>314</v>
       </c>
       <c r="I16" t="s">
-        <v>505</v>
+        <v>409</v>
       </c>
       <c r="J16" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="K16" t="s">
-        <v>591</v>
-      </c>
-      <c r="L16" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>516</v>
       </c>
       <c r="B17" s="2">
         <v>28458</v>
       </c>
       <c r="C17" t="s">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="E17" t="s">
-        <v>299</v>
+        <v>203</v>
       </c>
       <c r="F17" s="2">
         <v>26710</v>
       </c>
       <c r="G17" t="s">
-        <v>316</v>
+        <v>220</v>
       </c>
       <c r="H17" t="s">
-        <v>411</v>
+        <v>315</v>
       </c>
       <c r="I17" t="s">
-        <v>506</v>
+        <v>410</v>
       </c>
       <c r="J17" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="K17" t="s">
-        <v>595</v>
-      </c>
-      <c r="L17" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>517</v>
       </c>
       <c r="B18" s="2">
         <v>33213</v>
       </c>
       <c r="C18" t="s">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c r="E18" t="s">
-        <v>297</v>
+        <v>201</v>
       </c>
       <c r="F18" s="2">
         <v>27951</v>
       </c>
       <c r="G18" t="s">
-        <v>317</v>
+        <v>221</v>
       </c>
       <c r="H18" t="s">
-        <v>412</v>
+        <v>316</v>
       </c>
       <c r="I18" t="s">
-        <v>507</v>
+        <v>411</v>
       </c>
       <c r="J18" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="K18" t="s">
-        <v>591</v>
-      </c>
-      <c r="L18" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>518</v>
       </c>
       <c r="B19" s="2">
         <v>26337</v>
       </c>
       <c r="C19" t="s">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>219</v>
+        <v>123</v>
       </c>
       <c r="E19" t="s">
-        <v>299</v>
+        <v>203</v>
       </c>
       <c r="F19" s="2">
         <v>36639</v>
       </c>
       <c r="G19" t="s">
-        <v>318</v>
+        <v>222</v>
       </c>
       <c r="H19" t="s">
-        <v>413</v>
+        <v>317</v>
       </c>
       <c r="I19" t="s">
-        <v>508</v>
+        <v>412</v>
       </c>
       <c r="J19" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="K19" t="s">
-        <v>591</v>
-      </c>
-      <c r="L19" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>519</v>
       </c>
       <c r="B20" s="2">
         <v>25118</v>
       </c>
       <c r="C20" t="s">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>220</v>
+        <v>124</v>
       </c>
       <c r="E20" t="s">
-        <v>298</v>
+        <v>202</v>
       </c>
       <c r="F20" s="2">
         <v>35663</v>
       </c>
       <c r="G20" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="H20" t="s">
-        <v>414</v>
+        <v>318</v>
       </c>
       <c r="I20" t="s">
-        <v>509</v>
+        <v>413</v>
       </c>
       <c r="J20" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="K20" t="s">
-        <v>594</v>
-      </c>
-      <c r="L20" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>520</v>
       </c>
       <c r="B21" s="2">
         <v>25241</v>
       </c>
       <c r="C21" t="s">
-        <v>126</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>221</v>
+        <v>125</v>
       </c>
       <c r="E21" t="s">
-        <v>300</v>
+        <v>204</v>
       </c>
       <c r="F21" s="2">
         <v>33753</v>
       </c>
       <c r="G21" t="s">
-        <v>320</v>
+        <v>224</v>
       </c>
       <c r="H21" t="s">
-        <v>415</v>
+        <v>319</v>
       </c>
       <c r="I21" t="s">
-        <v>510</v>
+        <v>414</v>
       </c>
       <c r="J21" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="K21" t="s">
-        <v>595</v>
-      </c>
-      <c r="L21" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>521</v>
       </c>
       <c r="B22" s="2">
         <v>24089</v>
       </c>
       <c r="C22" t="s">
-        <v>127</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>222</v>
+        <v>126</v>
       </c>
       <c r="E22" t="s">
-        <v>299</v>
+        <v>203</v>
       </c>
       <c r="F22" s="2">
         <v>23587</v>
       </c>
       <c r="G22" t="s">
-        <v>321</v>
+        <v>225</v>
       </c>
       <c r="H22" t="s">
-        <v>416</v>
+        <v>320</v>
       </c>
       <c r="I22" t="s">
-        <v>511</v>
+        <v>415</v>
       </c>
       <c r="J22" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="K22" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>522</v>
       </c>
       <c r="B23" s="2">
         <v>34007</v>
       </c>
       <c r="C23" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>223</v>
+        <v>127</v>
       </c>
       <c r="E23" t="s">
-        <v>299</v>
+        <v>203</v>
       </c>
       <c r="F23" s="2">
         <v>36151</v>
       </c>
       <c r="G23" t="s">
-        <v>322</v>
+        <v>226</v>
       </c>
       <c r="H23" t="s">
-        <v>417</v>
+        <v>321</v>
       </c>
       <c r="I23" t="s">
-        <v>512</v>
+        <v>416</v>
       </c>
       <c r="J23" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="K23" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>523</v>
       </c>
       <c r="B24" s="2">
         <v>29285</v>
       </c>
       <c r="C24" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>224</v>
+        <v>128</v>
       </c>
       <c r="E24" t="s">
-        <v>300</v>
+        <v>204</v>
       </c>
       <c r="F24" s="2">
         <v>31783</v>
       </c>
       <c r="G24" t="s">
-        <v>323</v>
+        <v>227</v>
       </c>
       <c r="H24" t="s">
-        <v>418</v>
+        <v>322</v>
       </c>
       <c r="I24" t="s">
-        <v>513</v>
+        <v>417</v>
       </c>
       <c r="J24" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="K24" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>524</v>
       </c>
       <c r="B25" s="2">
         <v>36404</v>
       </c>
       <c r="C25" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>225</v>
+        <v>129</v>
       </c>
       <c r="E25" t="s">
-        <v>299</v>
+        <v>203</v>
       </c>
       <c r="F25" s="2">
         <v>35848</v>
       </c>
       <c r="G25" t="s">
-        <v>324</v>
+        <v>228</v>
       </c>
       <c r="H25" t="s">
-        <v>419</v>
+        <v>323</v>
       </c>
       <c r="I25" t="s">
-        <v>514</v>
+        <v>418</v>
       </c>
       <c r="J25" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="K25" t="s">
-        <v>595</v>
-      </c>
-      <c r="L25" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>525</v>
       </c>
       <c r="B26" s="2">
         <v>23927</v>
       </c>
       <c r="C26" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>226</v>
+        <v>130</v>
       </c>
       <c r="E26" t="s">
-        <v>299</v>
+        <v>203</v>
       </c>
       <c r="F26" s="2">
         <v>29500</v>
       </c>
       <c r="G26" t="s">
-        <v>325</v>
+        <v>229</v>
       </c>
       <c r="H26" t="s">
-        <v>420</v>
+        <v>324</v>
       </c>
       <c r="I26" t="s">
-        <v>515</v>
+        <v>419</v>
       </c>
       <c r="J26" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="K26" t="s">
-        <v>591</v>
-      </c>
-      <c r="L26" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>526</v>
       </c>
       <c r="B27" s="2">
         <v>28440</v>
       </c>
       <c r="C27" t="s">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="D27" t="s">
-        <v>227</v>
+        <v>131</v>
       </c>
       <c r="E27" t="s">
-        <v>298</v>
+        <v>202</v>
       </c>
       <c r="F27" s="2">
         <v>26924</v>
       </c>
       <c r="G27" t="s">
-        <v>326</v>
+        <v>230</v>
       </c>
       <c r="H27" t="s">
-        <v>421</v>
+        <v>325</v>
       </c>
       <c r="I27" t="s">
-        <v>516</v>
+        <v>420</v>
       </c>
       <c r="J27" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="K27" t="s">
-        <v>591</v>
-      </c>
-      <c r="L27" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>527</v>
       </c>
       <c r="B28" s="2">
         <v>31790</v>
       </c>
       <c r="C28" t="s">
-        <v>133</v>
+        <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>228</v>
+        <v>132</v>
       </c>
       <c r="E28" t="s">
-        <v>299</v>
+        <v>203</v>
       </c>
       <c r="F28" s="2">
         <v>32232</v>
       </c>
       <c r="G28" t="s">
-        <v>327</v>
+        <v>231</v>
       </c>
       <c r="H28" t="s">
-        <v>422</v>
+        <v>326</v>
       </c>
       <c r="I28" t="s">
-        <v>517</v>
+        <v>421</v>
       </c>
       <c r="J28" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="K28" t="s">
-        <v>597</v>
-      </c>
-      <c r="L28" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>528</v>
       </c>
       <c r="B29" s="2">
         <v>29286</v>
       </c>
       <c r="C29" t="s">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="D29" t="s">
-        <v>229</v>
+        <v>133</v>
       </c>
       <c r="E29" t="s">
-        <v>297</v>
+        <v>201</v>
       </c>
       <c r="F29" s="2">
         <v>31377</v>
       </c>
       <c r="G29" t="s">
-        <v>328</v>
+        <v>232</v>
       </c>
       <c r="H29" t="s">
-        <v>423</v>
+        <v>327</v>
       </c>
       <c r="I29" t="s">
-        <v>518</v>
+        <v>422</v>
       </c>
       <c r="J29" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="K29" t="s">
-        <v>591</v>
-      </c>
-      <c r="L29" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>529</v>
       </c>
       <c r="B30" s="2">
         <v>23971</v>
       </c>
       <c r="C30" t="s">
-        <v>135</v>
+        <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>230</v>
+        <v>134</v>
       </c>
       <c r="E30" t="s">
-        <v>299</v>
+        <v>203</v>
       </c>
       <c r="F30" s="2">
         <v>30266</v>
       </c>
       <c r="G30" t="s">
-        <v>329</v>
+        <v>233</v>
       </c>
       <c r="H30" t="s">
-        <v>424</v>
+        <v>328</v>
       </c>
       <c r="I30" t="s">
-        <v>519</v>
+        <v>423</v>
       </c>
       <c r="J30" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="K30" t="s">
-        <v>594</v>
-      </c>
-      <c r="L30" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>530</v>
       </c>
       <c r="B31" s="2">
         <v>24586</v>
       </c>
       <c r="C31" t="s">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>231</v>
+        <v>135</v>
       </c>
       <c r="E31" t="s">
-        <v>298</v>
+        <v>202</v>
       </c>
       <c r="F31" s="2">
         <v>23801</v>
       </c>
       <c r="G31" t="s">
-        <v>330</v>
+        <v>234</v>
       </c>
       <c r="H31" t="s">
-        <v>425</v>
+        <v>329</v>
       </c>
       <c r="I31" t="s">
-        <v>520</v>
+        <v>424</v>
       </c>
       <c r="J31" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="K31" t="s">
-        <v>597</v>
-      </c>
-      <c r="L31" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>531</v>
       </c>
       <c r="B32" s="2">
         <v>25364</v>
       </c>
       <c r="C32" t="s">
-        <v>137</v>
+        <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>232</v>
+        <v>136</v>
       </c>
       <c r="E32" t="s">
-        <v>300</v>
+        <v>204</v>
       </c>
       <c r="F32" s="2">
         <v>34233</v>
       </c>
       <c r="G32" t="s">
-        <v>331</v>
+        <v>235</v>
       </c>
       <c r="H32" t="s">
-        <v>426</v>
+        <v>330</v>
       </c>
       <c r="I32" t="s">
-        <v>521</v>
+        <v>425</v>
       </c>
       <c r="J32" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="K32" t="s">
-        <v>591</v>
-      </c>
-      <c r="L32" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>532</v>
       </c>
       <c r="B33" s="2">
         <v>25298</v>
       </c>
       <c r="C33" t="s">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="D33" t="s">
-        <v>233</v>
+        <v>137</v>
       </c>
       <c r="E33" t="s">
-        <v>298</v>
+        <v>202</v>
       </c>
       <c r="F33" s="2">
         <v>34046</v>
       </c>
       <c r="G33" t="s">
-        <v>332</v>
+        <v>236</v>
       </c>
       <c r="H33" t="s">
-        <v>427</v>
+        <v>331</v>
       </c>
       <c r="I33" t="s">
-        <v>522</v>
+        <v>426</v>
       </c>
       <c r="J33" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="K33" t="s">
-        <v>597</v>
-      </c>
-      <c r="L33" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>533</v>
       </c>
       <c r="B34" s="2">
         <v>35983</v>
       </c>
       <c r="C34" t="s">
-        <v>139</v>
+        <v>43</v>
       </c>
       <c r="D34" t="s">
-        <v>234</v>
+        <v>138</v>
       </c>
       <c r="E34" t="s">
-        <v>298</v>
+        <v>202</v>
       </c>
       <c r="F34" s="2">
         <v>36746</v>
       </c>
       <c r="G34" t="s">
-        <v>333</v>
+        <v>237</v>
       </c>
       <c r="H34" t="s">
-        <v>428</v>
+        <v>332</v>
       </c>
       <c r="I34" t="s">
-        <v>523</v>
+        <v>427</v>
       </c>
       <c r="J34" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="K34" t="s">
-        <v>591</v>
-      </c>
-      <c r="L34" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>534</v>
       </c>
       <c r="B35" s="2">
         <v>29005</v>
       </c>
       <c r="C35" t="s">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="D35" t="s">
-        <v>235</v>
+        <v>139</v>
       </c>
       <c r="E35" t="s">
-        <v>300</v>
+        <v>204</v>
       </c>
       <c r="F35" s="2">
         <v>22109</v>
       </c>
       <c r="G35" t="s">
-        <v>334</v>
+        <v>238</v>
       </c>
       <c r="H35" t="s">
-        <v>429</v>
+        <v>333</v>
       </c>
       <c r="I35" t="s">
-        <v>524</v>
+        <v>428</v>
       </c>
       <c r="J35" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="K35" t="s">
-        <v>591</v>
-      </c>
-      <c r="L35" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>535</v>
       </c>
       <c r="B36" s="2">
         <v>22198</v>
       </c>
       <c r="C36" t="s">
-        <v>141</v>
+        <v>45</v>
       </c>
       <c r="D36" t="s">
-        <v>236</v>
+        <v>140</v>
       </c>
       <c r="E36" t="s">
-        <v>298</v>
+        <v>202</v>
       </c>
       <c r="F36" s="2">
         <v>32420</v>
       </c>
       <c r="G36" t="s">
-        <v>335</v>
+        <v>239</v>
       </c>
       <c r="H36" t="s">
-        <v>430</v>
+        <v>334</v>
       </c>
       <c r="I36" t="s">
-        <v>525</v>
+        <v>429</v>
       </c>
       <c r="J36" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="K36" t="s">
-        <v>591</v>
-      </c>
-      <c r="L36" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>536</v>
       </c>
       <c r="B37" s="2">
         <v>22364</v>
       </c>
       <c r="C37" t="s">
-        <v>142</v>
+        <v>46</v>
       </c>
       <c r="D37" t="s">
-        <v>237</v>
+        <v>141</v>
       </c>
       <c r="E37" t="s">
-        <v>299</v>
+        <v>203</v>
       </c>
       <c r="F37" s="2">
         <v>25122</v>
       </c>
       <c r="G37" t="s">
-        <v>336</v>
+        <v>240</v>
       </c>
       <c r="H37" t="s">
-        <v>431</v>
+        <v>335</v>
       </c>
       <c r="I37" t="s">
-        <v>526</v>
+        <v>430</v>
       </c>
       <c r="J37" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="K37" t="s">
-        <v>597</v>
-      </c>
-      <c r="L37" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>537</v>
       </c>
       <c r="B38" s="2">
         <v>29681</v>
       </c>
       <c r="C38" t="s">
-        <v>143</v>
+        <v>47</v>
       </c>
       <c r="D38" t="s">
-        <v>238</v>
+        <v>142</v>
       </c>
       <c r="E38" t="s">
-        <v>297</v>
+        <v>201</v>
       </c>
       <c r="F38" s="2">
         <v>28060</v>
       </c>
       <c r="G38" t="s">
-        <v>337</v>
+        <v>241</v>
       </c>
       <c r="H38" t="s">
-        <v>432</v>
+        <v>336</v>
       </c>
       <c r="I38" t="s">
-        <v>527</v>
+        <v>431</v>
       </c>
       <c r="J38" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="K38" t="s">
-        <v>595</v>
-      </c>
-      <c r="L38" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>538</v>
       </c>
       <c r="B39" s="2">
         <v>27652</v>
       </c>
       <c r="C39" t="s">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="D39" t="s">
-        <v>239</v>
+        <v>143</v>
       </c>
       <c r="E39" t="s">
-        <v>300</v>
+        <v>204</v>
       </c>
       <c r="F39" s="2">
         <v>25065</v>
       </c>
       <c r="G39" t="s">
-        <v>338</v>
+        <v>242</v>
       </c>
       <c r="H39" t="s">
-        <v>433</v>
+        <v>337</v>
       </c>
       <c r="I39" t="s">
-        <v>528</v>
+        <v>432</v>
       </c>
       <c r="J39" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="K39" t="s">
-        <v>593</v>
-      </c>
-      <c r="L39" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>539</v>
       </c>
       <c r="B40" s="2">
         <v>32526</v>
       </c>
       <c r="C40" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="D40" t="s">
-        <v>240</v>
+        <v>144</v>
       </c>
       <c r="E40" t="s">
-        <v>298</v>
+        <v>202</v>
       </c>
       <c r="F40" s="2">
         <v>32347</v>
       </c>
       <c r="G40" t="s">
-        <v>339</v>
+        <v>243</v>
       </c>
       <c r="H40" t="s">
-        <v>434</v>
+        <v>338</v>
       </c>
       <c r="I40" t="s">
-        <v>529</v>
+        <v>433</v>
       </c>
       <c r="J40" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="K40" t="s">
-        <v>597</v>
-      </c>
-      <c r="L40" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>540</v>
       </c>
       <c r="B41" s="2">
         <v>34636</v>
       </c>
       <c r="C41" t="s">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="D41" t="s">
-        <v>241</v>
+        <v>145</v>
       </c>
       <c r="E41" t="s">
-        <v>298</v>
+        <v>202</v>
       </c>
       <c r="F41" s="2">
         <v>25082</v>
       </c>
       <c r="G41" t="s">
-        <v>340</v>
+        <v>244</v>
       </c>
       <c r="H41" t="s">
-        <v>435</v>
+        <v>339</v>
       </c>
       <c r="I41" t="s">
-        <v>530</v>
+        <v>434</v>
       </c>
       <c r="J41" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="K41" t="s">
-        <v>597</v>
-      </c>
-      <c r="L41" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>541</v>
       </c>
       <c r="B42" s="2">
         <v>27916</v>
       </c>
       <c r="C42" t="s">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="D42" t="s">
-        <v>242</v>
+        <v>146</v>
       </c>
       <c r="E42" t="s">
-        <v>298</v>
+        <v>202</v>
       </c>
       <c r="F42" s="2">
         <v>26634</v>
       </c>
       <c r="G42" t="s">
-        <v>341</v>
+        <v>245</v>
       </c>
       <c r="H42" t="s">
-        <v>436</v>
+        <v>340</v>
       </c>
       <c r="I42" t="s">
-        <v>531</v>
+        <v>435</v>
       </c>
       <c r="J42" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="K42" t="s">
-        <v>591</v>
-      </c>
-      <c r="L42" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>542</v>
       </c>
       <c r="B43" s="2">
         <v>35354</v>
       </c>
       <c r="C43" t="s">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="D43" t="s">
-        <v>243</v>
+        <v>147</v>
       </c>
       <c r="E43" t="s">
-        <v>300</v>
+        <v>204</v>
       </c>
       <c r="F43" s="2">
         <v>23857</v>
       </c>
       <c r="G43" t="s">
-        <v>342</v>
+        <v>246</v>
       </c>
       <c r="H43" t="s">
-        <v>437</v>
+        <v>341</v>
       </c>
       <c r="I43" t="s">
-        <v>532</v>
+        <v>436</v>
       </c>
       <c r="J43" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="K43" t="s">
-        <v>591</v>
-      </c>
-      <c r="L43" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>543</v>
       </c>
       <c r="B44" s="2">
         <v>35578</v>
       </c>
       <c r="C44" t="s">
-        <v>149</v>
+        <v>53</v>
       </c>
       <c r="D44" t="s">
-        <v>244</v>
+        <v>148</v>
       </c>
       <c r="E44" t="s">
-        <v>297</v>
+        <v>201</v>
       </c>
       <c r="F44" s="2">
         <v>23652</v>
       </c>
       <c r="G44" t="s">
-        <v>343</v>
+        <v>247</v>
       </c>
       <c r="H44" t="s">
-        <v>438</v>
+        <v>342</v>
       </c>
       <c r="I44" t="s">
-        <v>533</v>
+        <v>437</v>
       </c>
       <c r="J44" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="K44" t="s">
-        <v>593</v>
-      </c>
-      <c r="L44" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>544</v>
       </c>
       <c r="B45" s="2">
         <v>25898</v>
       </c>
       <c r="C45" t="s">
-        <v>150</v>
+        <v>54</v>
       </c>
       <c r="D45" t="s">
-        <v>245</v>
+        <v>149</v>
       </c>
       <c r="E45" t="s">
-        <v>300</v>
+        <v>204</v>
       </c>
       <c r="F45" s="2">
         <v>26913</v>
       </c>
       <c r="G45" t="s">
-        <v>344</v>
+        <v>248</v>
       </c>
       <c r="H45" t="s">
-        <v>439</v>
+        <v>343</v>
       </c>
       <c r="I45" t="s">
-        <v>534</v>
+        <v>438</v>
       </c>
       <c r="J45" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="K45" t="s">
-        <v>594</v>
-      </c>
-      <c r="L45" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>545</v>
       </c>
       <c r="B46" s="2">
         <v>29778</v>
       </c>
       <c r="C46" t="s">
-        <v>151</v>
+        <v>55</v>
       </c>
       <c r="D46" t="s">
-        <v>246</v>
+        <v>150</v>
       </c>
       <c r="E46" t="s">
-        <v>298</v>
+        <v>202</v>
       </c>
       <c r="F46" s="2">
         <v>27559</v>
       </c>
       <c r="G46" t="s">
-        <v>345</v>
+        <v>249</v>
       </c>
       <c r="H46" t="s">
-        <v>440</v>
+        <v>344</v>
       </c>
       <c r="I46" t="s">
-        <v>535</v>
+        <v>439</v>
       </c>
       <c r="J46" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="K46" t="s">
-        <v>591</v>
-      </c>
-      <c r="L46" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>546</v>
       </c>
       <c r="B47" s="2">
         <v>28963</v>
       </c>
       <c r="C47" t="s">
-        <v>152</v>
+        <v>56</v>
       </c>
       <c r="D47" t="s">
-        <v>247</v>
+        <v>151</v>
       </c>
       <c r="E47" t="s">
-        <v>299</v>
+        <v>203</v>
       </c>
       <c r="F47" s="2">
         <v>28792</v>
       </c>
       <c r="G47" t="s">
-        <v>346</v>
+        <v>250</v>
       </c>
       <c r="H47" t="s">
-        <v>441</v>
+        <v>345</v>
       </c>
       <c r="I47" t="s">
-        <v>536</v>
+        <v>440</v>
       </c>
       <c r="J47" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="K47" t="s">
-        <v>596</v>
-      </c>
-      <c r="L47" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>547</v>
       </c>
       <c r="B48" s="2">
         <v>26140</v>
       </c>
       <c r="C48" t="s">
-        <v>153</v>
+        <v>57</v>
       </c>
       <c r="D48" t="s">
-        <v>248</v>
+        <v>152</v>
       </c>
       <c r="E48" t="s">
-        <v>299</v>
+        <v>203</v>
       </c>
       <c r="F48" s="2">
         <v>34388</v>
       </c>
       <c r="G48" t="s">
-        <v>347</v>
+        <v>251</v>
       </c>
       <c r="H48" t="s">
-        <v>442</v>
+        <v>346</v>
       </c>
       <c r="I48" t="s">
-        <v>537</v>
+        <v>441</v>
       </c>
       <c r="J48" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="K48" t="s">
-        <v>595</v>
-      </c>
-      <c r="L48" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>548</v>
       </c>
       <c r="B49" s="2">
         <v>27248</v>
       </c>
       <c r="C49" t="s">
-        <v>154</v>
+        <v>58</v>
       </c>
       <c r="D49" t="s">
-        <v>249</v>
+        <v>153</v>
       </c>
       <c r="E49" t="s">
-        <v>300</v>
+        <v>204</v>
       </c>
       <c r="F49" s="2">
         <v>27659</v>
       </c>
       <c r="G49" t="s">
-        <v>348</v>
+        <v>252</v>
       </c>
       <c r="H49" t="s">
-        <v>443</v>
+        <v>347</v>
       </c>
       <c r="I49" t="s">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="J49" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="K49" t="s">
-        <v>591</v>
-      </c>
-      <c r="L49" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>549</v>
       </c>
       <c r="B50" s="2">
         <v>24536</v>
       </c>
       <c r="C50" t="s">
-        <v>155</v>
+        <v>59</v>
       </c>
       <c r="D50" t="s">
-        <v>250</v>
+        <v>154</v>
       </c>
       <c r="E50" t="s">
-        <v>300</v>
+        <v>204</v>
       </c>
       <c r="F50" s="2">
         <v>23177</v>
       </c>
       <c r="G50" t="s">
-        <v>349</v>
+        <v>253</v>
       </c>
       <c r="H50" t="s">
-        <v>444</v>
+        <v>348</v>
       </c>
       <c r="I50" t="s">
-        <v>539</v>
+        <v>443</v>
       </c>
       <c r="J50" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="K50" t="s">
-        <v>591</v>
-      </c>
-      <c r="L50" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>550</v>
       </c>
       <c r="B51" s="2">
         <v>22461</v>
       </c>
       <c r="C51" t="s">
-        <v>156</v>
+        <v>60</v>
       </c>
       <c r="D51" t="s">
-        <v>251</v>
+        <v>155</v>
       </c>
       <c r="E51" t="s">
-        <v>297</v>
+        <v>201</v>
       </c>
       <c r="F51" s="2">
         <v>34841</v>
       </c>
       <c r="G51" t="s">
-        <v>350</v>
+        <v>254</v>
       </c>
       <c r="H51" t="s">
-        <v>445</v>
+        <v>349</v>
       </c>
       <c r="I51" t="s">
-        <v>540</v>
+        <v>444</v>
       </c>
       <c r="J51" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="K51" t="s">
-        <v>598</v>
-      </c>
-      <c r="L51" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>551</v>
       </c>
       <c r="B52" s="2">
         <v>29274</v>
       </c>
       <c r="C52" t="s">
-        <v>157</v>
+        <v>61</v>
       </c>
       <c r="D52" t="s">
-        <v>252</v>
+        <v>156</v>
       </c>
       <c r="E52" t="s">
-        <v>299</v>
+        <v>203</v>
       </c>
       <c r="F52" s="2">
         <v>29496</v>
       </c>
       <c r="G52" t="s">
-        <v>351</v>
+        <v>255</v>
       </c>
       <c r="H52" t="s">
-        <v>446</v>
+        <v>350</v>
       </c>
       <c r="I52" t="s">
-        <v>541</v>
+        <v>445</v>
       </c>
       <c r="J52" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="K52" t="s">
-        <v>599</v>
-      </c>
-      <c r="L52" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>552</v>
       </c>
       <c r="B53" s="2">
         <v>32563</v>
       </c>
       <c r="C53" t="s">
-        <v>158</v>
+        <v>62</v>
       </c>
       <c r="D53" t="s">
-        <v>253</v>
+        <v>157</v>
       </c>
       <c r="E53" t="s">
-        <v>300</v>
+        <v>204</v>
       </c>
       <c r="F53" s="2">
         <v>24655</v>
       </c>
       <c r="G53" t="s">
-        <v>352</v>
+        <v>256</v>
       </c>
       <c r="H53" t="s">
-        <v>447</v>
+        <v>351</v>
       </c>
       <c r="I53" t="s">
-        <v>542</v>
+        <v>446</v>
       </c>
       <c r="J53" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="K53" t="s">
-        <v>600</v>
-      </c>
-      <c r="L53" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>553</v>
       </c>
       <c r="B54" s="2">
         <v>27005</v>
       </c>
       <c r="C54" t="s">
-        <v>159</v>
+        <v>63</v>
       </c>
       <c r="D54" t="s">
-        <v>254</v>
+        <v>158</v>
       </c>
       <c r="E54" t="s">
-        <v>297</v>
+        <v>201</v>
       </c>
       <c r="F54" s="2">
         <v>35203</v>
       </c>
       <c r="G54" t="s">
-        <v>353</v>
+        <v>257</v>
       </c>
       <c r="H54" t="s">
-        <v>448</v>
+        <v>352</v>
       </c>
       <c r="I54" t="s">
-        <v>543</v>
+        <v>447</v>
       </c>
       <c r="J54" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="K54" t="s">
-        <v>594</v>
-      </c>
-      <c r="L54" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>554</v>
       </c>
       <c r="B55" s="2">
         <v>22049</v>
       </c>
       <c r="C55" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="D55" t="s">
-        <v>255</v>
+        <v>159</v>
       </c>
       <c r="E55" t="s">
-        <v>298</v>
+        <v>202</v>
       </c>
       <c r="F55" s="2">
         <v>33790</v>
       </c>
       <c r="G55" t="s">
-        <v>354</v>
+        <v>258</v>
       </c>
       <c r="H55" t="s">
-        <v>449</v>
+        <v>353</v>
       </c>
       <c r="I55" t="s">
-        <v>544</v>
+        <v>448</v>
       </c>
       <c r="J55" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="K55" t="s">
-        <v>591</v>
-      </c>
-      <c r="L55" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>66</v>
+        <v>555</v>
       </c>
       <c r="B56" s="2">
         <v>34177</v>
       </c>
       <c r="C56" t="s">
-        <v>161</v>
+        <v>65</v>
       </c>
       <c r="D56" t="s">
-        <v>256</v>
+        <v>160</v>
       </c>
       <c r="E56" t="s">
-        <v>299</v>
+        <v>203</v>
       </c>
       <c r="F56" s="2">
         <v>33979</v>
       </c>
       <c r="G56" t="s">
-        <v>355</v>
+        <v>259</v>
       </c>
       <c r="H56" t="s">
-        <v>450</v>
+        <v>354</v>
       </c>
       <c r="I56" t="s">
-        <v>545</v>
+        <v>449</v>
       </c>
       <c r="J56" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="K56" t="s">
-        <v>591</v>
-      </c>
-      <c r="L56" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>67</v>
+        <v>556</v>
       </c>
       <c r="B57" s="2">
         <v>30280</v>
       </c>
       <c r="C57" t="s">
-        <v>162</v>
+        <v>66</v>
       </c>
       <c r="D57" t="s">
-        <v>257</v>
+        <v>161</v>
       </c>
       <c r="E57" t="s">
-        <v>298</v>
+        <v>202</v>
       </c>
       <c r="F57" s="2">
         <v>36824</v>
       </c>
       <c r="G57" t="s">
-        <v>356</v>
+        <v>260</v>
       </c>
       <c r="H57" t="s">
-        <v>451</v>
+        <v>355</v>
       </c>
       <c r="I57" t="s">
-        <v>546</v>
+        <v>450</v>
       </c>
       <c r="J57" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="K57" t="s">
-        <v>600</v>
-      </c>
-      <c r="L57" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>557</v>
       </c>
       <c r="B58" s="2">
         <v>35085</v>
       </c>
       <c r="C58" t="s">
-        <v>163</v>
+        <v>67</v>
       </c>
       <c r="D58" t="s">
-        <v>258</v>
+        <v>162</v>
       </c>
       <c r="E58" t="s">
-        <v>298</v>
+        <v>202</v>
       </c>
       <c r="F58" s="2">
         <v>32011</v>
       </c>
       <c r="G58" t="s">
-        <v>357</v>
+        <v>261</v>
       </c>
       <c r="H58" t="s">
-        <v>452</v>
+        <v>356</v>
       </c>
       <c r="I58" t="s">
-        <v>547</v>
+        <v>451</v>
       </c>
       <c r="J58" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="K58" t="s">
-        <v>591</v>
-      </c>
-      <c r="L58" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>558</v>
       </c>
       <c r="B59" s="2">
         <v>26475</v>
       </c>
       <c r="C59" t="s">
-        <v>164</v>
+        <v>68</v>
       </c>
       <c r="D59" t="s">
-        <v>259</v>
+        <v>163</v>
       </c>
       <c r="E59" t="s">
-        <v>297</v>
+        <v>201</v>
       </c>
       <c r="F59" s="2">
         <v>26321</v>
       </c>
       <c r="G59" t="s">
-        <v>358</v>
+        <v>262</v>
       </c>
       <c r="H59" t="s">
-        <v>453</v>
+        <v>357</v>
       </c>
       <c r="I59" t="s">
-        <v>548</v>
+        <v>452</v>
       </c>
       <c r="J59" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="K59" t="s">
-        <v>595</v>
-      </c>
-      <c r="L59" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>559</v>
       </c>
       <c r="B60" s="2">
         <v>25020</v>
       </c>
       <c r="C60" t="s">
-        <v>165</v>
+        <v>69</v>
       </c>
       <c r="D60" t="s">
-        <v>260</v>
+        <v>164</v>
       </c>
       <c r="E60" t="s">
-        <v>298</v>
+        <v>202</v>
       </c>
       <c r="F60" s="2">
         <v>24467</v>
       </c>
       <c r="G60" t="s">
-        <v>359</v>
+        <v>263</v>
       </c>
       <c r="H60" t="s">
-        <v>454</v>
+        <v>358</v>
       </c>
       <c r="I60" t="s">
-        <v>549</v>
+        <v>453</v>
       </c>
       <c r="J60" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="K60" t="s">
-        <v>595</v>
-      </c>
-      <c r="L60" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>71</v>
+        <v>560</v>
       </c>
       <c r="B61" s="2">
         <v>23869</v>
       </c>
       <c r="C61" t="s">
-        <v>166</v>
+        <v>70</v>
       </c>
       <c r="D61" t="s">
-        <v>261</v>
+        <v>165</v>
       </c>
       <c r="E61" t="s">
-        <v>297</v>
+        <v>201</v>
       </c>
       <c r="F61" s="2">
         <v>27773</v>
       </c>
       <c r="G61" t="s">
-        <v>360</v>
+        <v>264</v>
       </c>
       <c r="H61" t="s">
-        <v>455</v>
+        <v>359</v>
       </c>
       <c r="I61" t="s">
-        <v>550</v>
+        <v>454</v>
       </c>
       <c r="J61" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="K61" t="s">
-        <v>600</v>
-      </c>
-      <c r="L61" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>72</v>
+        <v>561</v>
       </c>
       <c r="B62" s="2">
         <v>34848</v>
       </c>
       <c r="C62" t="s">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="D62" t="s">
-        <v>262</v>
+        <v>166</v>
       </c>
       <c r="E62" t="s">
-        <v>298</v>
+        <v>202</v>
       </c>
       <c r="F62" s="2">
         <v>30947</v>
       </c>
       <c r="G62" t="s">
-        <v>361</v>
+        <v>265</v>
       </c>
       <c r="H62" t="s">
-        <v>456</v>
+        <v>360</v>
       </c>
       <c r="I62" t="s">
-        <v>551</v>
+        <v>455</v>
       </c>
       <c r="J62" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="K62" t="s">
-        <v>594</v>
-      </c>
-      <c r="L62" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>73</v>
+        <v>562</v>
       </c>
       <c r="B63" s="2">
         <v>22775</v>
       </c>
       <c r="C63" t="s">
-        <v>168</v>
+        <v>72</v>
       </c>
       <c r="D63" t="s">
-        <v>263</v>
+        <v>167</v>
       </c>
       <c r="E63" t="s">
-        <v>297</v>
+        <v>201</v>
       </c>
       <c r="F63" s="2">
         <v>27538</v>
       </c>
       <c r="G63" t="s">
-        <v>362</v>
+        <v>266</v>
       </c>
       <c r="H63" t="s">
-        <v>457</v>
+        <v>361</v>
       </c>
       <c r="I63" t="s">
-        <v>552</v>
+        <v>456</v>
       </c>
       <c r="J63" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="K63" t="s">
-        <v>600</v>
-      </c>
-      <c r="L63" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>74</v>
+        <v>563</v>
       </c>
       <c r="B64" s="2">
         <v>29211</v>
       </c>
       <c r="C64" t="s">
-        <v>169</v>
+        <v>73</v>
       </c>
       <c r="D64" t="s">
-        <v>264</v>
+        <v>168</v>
       </c>
       <c r="E64" t="s">
-        <v>297</v>
+        <v>201</v>
       </c>
       <c r="F64" s="2">
         <v>31781</v>
       </c>
       <c r="G64" t="s">
-        <v>363</v>
+        <v>267</v>
       </c>
       <c r="H64" t="s">
-        <v>458</v>
+        <v>362</v>
       </c>
       <c r="I64" t="s">
-        <v>553</v>
+        <v>457</v>
       </c>
       <c r="J64" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="K64" t="s">
-        <v>594</v>
-      </c>
-      <c r="L64" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>75</v>
+        <v>564</v>
       </c>
       <c r="B65" s="2">
         <v>32599</v>
       </c>
       <c r="C65" t="s">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="D65" t="s">
-        <v>265</v>
+        <v>169</v>
       </c>
       <c r="E65" t="s">
-        <v>300</v>
+        <v>204</v>
       </c>
       <c r="F65" s="2">
         <v>25841</v>
       </c>
       <c r="G65" t="s">
-        <v>364</v>
+        <v>268</v>
       </c>
       <c r="H65" t="s">
-        <v>459</v>
+        <v>363</v>
       </c>
       <c r="I65" t="s">
-        <v>554</v>
+        <v>458</v>
       </c>
       <c r="J65" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="K65" t="s">
-        <v>593</v>
-      </c>
-      <c r="L65" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>76</v>
+        <v>565</v>
       </c>
       <c r="B66" s="2">
         <v>30955</v>
       </c>
       <c r="C66" t="s">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="D66" t="s">
-        <v>266</v>
+        <v>170</v>
       </c>
       <c r="E66" t="s">
-        <v>297</v>
+        <v>201</v>
       </c>
       <c r="F66" s="2">
         <v>27098</v>
       </c>
       <c r="G66" t="s">
-        <v>365</v>
+        <v>269</v>
       </c>
       <c r="H66" t="s">
-        <v>460</v>
+        <v>364</v>
       </c>
       <c r="I66" t="s">
-        <v>555</v>
+        <v>459</v>
       </c>
       <c r="J66" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="K66" t="s">
-        <v>593</v>
-      </c>
-      <c r="L66" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>77</v>
+        <v>566</v>
       </c>
       <c r="B67" s="2">
         <v>24553</v>
       </c>
       <c r="C67" t="s">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="D67" t="s">
-        <v>267</v>
+        <v>171</v>
       </c>
       <c r="E67" t="s">
-        <v>298</v>
+        <v>202</v>
       </c>
       <c r="F67" s="2">
         <v>23008</v>
       </c>
       <c r="G67" t="s">
-        <v>366</v>
+        <v>270</v>
       </c>
       <c r="H67" t="s">
-        <v>461</v>
+        <v>365</v>
       </c>
       <c r="I67" t="s">
-        <v>556</v>
+        <v>460</v>
       </c>
       <c r="J67" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="K67" t="s">
-        <v>595</v>
-      </c>
-      <c r="L67" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>78</v>
+        <v>567</v>
       </c>
       <c r="B68" s="2">
         <v>32974</v>
       </c>
       <c r="C68" t="s">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="D68" t="s">
-        <v>268</v>
+        <v>172</v>
       </c>
       <c r="E68" t="s">
-        <v>298</v>
+        <v>202</v>
       </c>
       <c r="F68" s="2">
         <v>35208</v>
       </c>
       <c r="G68" t="s">
-        <v>367</v>
+        <v>271</v>
       </c>
       <c r="H68" t="s">
-        <v>462</v>
+        <v>366</v>
       </c>
       <c r="I68" t="s">
-        <v>557</v>
+        <v>461</v>
       </c>
       <c r="J68" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="K68" t="s">
-        <v>600</v>
-      </c>
-      <c r="L68" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>79</v>
+        <v>568</v>
       </c>
       <c r="B69" s="2">
         <v>27045</v>
       </c>
       <c r="C69" t="s">
-        <v>174</v>
+        <v>78</v>
       </c>
       <c r="D69" t="s">
-        <v>269</v>
+        <v>173</v>
       </c>
       <c r="E69" t="s">
-        <v>298</v>
+        <v>202</v>
       </c>
       <c r="F69" s="2">
         <v>35199</v>
       </c>
       <c r="G69" t="s">
-        <v>368</v>
+        <v>272</v>
       </c>
       <c r="H69" t="s">
-        <v>463</v>
+        <v>367</v>
       </c>
       <c r="I69" t="s">
-        <v>558</v>
+        <v>462</v>
       </c>
       <c r="J69" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="K69" t="s">
-        <v>598</v>
-      </c>
-      <c r="L69" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>80</v>
+        <v>569</v>
       </c>
       <c r="B70" s="2">
         <v>26084</v>
       </c>
       <c r="C70" t="s">
-        <v>175</v>
+        <v>79</v>
       </c>
       <c r="D70" t="s">
-        <v>270</v>
+        <v>174</v>
       </c>
       <c r="E70" t="s">
-        <v>300</v>
+        <v>204</v>
       </c>
       <c r="F70" s="2">
         <v>33802</v>
       </c>
       <c r="G70" t="s">
-        <v>369</v>
+        <v>273</v>
       </c>
       <c r="H70" t="s">
-        <v>464</v>
+        <v>368</v>
       </c>
       <c r="I70" t="s">
-        <v>559</v>
+        <v>463</v>
       </c>
       <c r="J70" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="K70" t="s">
-        <v>595</v>
-      </c>
-      <c r="L70" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>81</v>
+        <v>570</v>
       </c>
       <c r="B71" s="2">
         <v>32360</v>
       </c>
       <c r="C71" t="s">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="D71" t="s">
-        <v>271</v>
+        <v>175</v>
       </c>
       <c r="E71" t="s">
-        <v>297</v>
+        <v>201</v>
       </c>
       <c r="F71" s="2">
         <v>23500</v>
       </c>
       <c r="G71" t="s">
-        <v>370</v>
+        <v>274</v>
       </c>
       <c r="H71" t="s">
-        <v>465</v>
+        <v>369</v>
       </c>
       <c r="I71" t="s">
-        <v>560</v>
+        <v>464</v>
       </c>
       <c r="J71" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="K71" t="s">
-        <v>595</v>
-      </c>
-      <c r="L71" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>82</v>
+        <v>571</v>
       </c>
       <c r="B72" s="2">
         <v>29793</v>
       </c>
       <c r="C72" t="s">
-        <v>177</v>
+        <v>81</v>
       </c>
       <c r="D72" t="s">
-        <v>272</v>
+        <v>176</v>
       </c>
       <c r="E72" t="s">
-        <v>300</v>
+        <v>204</v>
       </c>
       <c r="F72" s="2">
         <v>26526</v>
       </c>
       <c r="G72" t="s">
-        <v>371</v>
+        <v>275</v>
       </c>
       <c r="H72" t="s">
-        <v>466</v>
+        <v>370</v>
       </c>
       <c r="I72" t="s">
-        <v>561</v>
+        <v>465</v>
       </c>
       <c r="J72" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="K72" t="s">
-        <v>596</v>
-      </c>
-      <c r="L72" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>83</v>
+        <v>572</v>
       </c>
       <c r="B73" s="2">
         <v>32337</v>
       </c>
       <c r="C73" t="s">
-        <v>178</v>
+        <v>82</v>
       </c>
       <c r="D73" t="s">
-        <v>273</v>
+        <v>177</v>
       </c>
       <c r="E73" t="s">
-        <v>300</v>
+        <v>204</v>
       </c>
       <c r="F73" s="2">
         <v>34256</v>
       </c>
       <c r="G73" t="s">
-        <v>372</v>
+        <v>276</v>
       </c>
       <c r="H73" t="s">
-        <v>467</v>
+        <v>371</v>
       </c>
       <c r="I73" t="s">
-        <v>562</v>
+        <v>466</v>
       </c>
       <c r="J73" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="K73" t="s">
-        <v>600</v>
-      </c>
-      <c r="L73" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>84</v>
+        <v>573</v>
       </c>
       <c r="B74" s="2">
         <v>35079</v>
       </c>
       <c r="C74" t="s">
-        <v>179</v>
+        <v>83</v>
       </c>
       <c r="D74" t="s">
-        <v>274</v>
+        <v>178</v>
       </c>
       <c r="E74" t="s">
-        <v>300</v>
+        <v>204</v>
       </c>
       <c r="F74" s="2">
         <v>29843</v>
       </c>
       <c r="G74" t="s">
-        <v>373</v>
+        <v>277</v>
       </c>
       <c r="H74" t="s">
-        <v>468</v>
+        <v>372</v>
       </c>
       <c r="I74" t="s">
-        <v>563</v>
+        <v>467</v>
       </c>
       <c r="J74" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="K74" t="s">
-        <v>600</v>
-      </c>
-      <c r="L74" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>85</v>
+        <v>574</v>
       </c>
       <c r="B75" s="2">
         <v>36316</v>
       </c>
       <c r="C75" t="s">
-        <v>180</v>
+        <v>84</v>
       </c>
       <c r="D75" t="s">
-        <v>275</v>
+        <v>179</v>
       </c>
       <c r="E75" t="s">
-        <v>298</v>
+        <v>202</v>
       </c>
       <c r="F75" s="2">
         <v>31307</v>
       </c>
       <c r="G75" t="s">
-        <v>374</v>
+        <v>278</v>
       </c>
       <c r="H75" t="s">
-        <v>469</v>
+        <v>373</v>
       </c>
       <c r="I75" t="s">
-        <v>564</v>
+        <v>468</v>
       </c>
       <c r="J75" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="K75" t="s">
-        <v>600</v>
-      </c>
-      <c r="L75" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>86</v>
+        <v>575</v>
       </c>
       <c r="B76" s="2">
         <v>26903</v>
       </c>
       <c r="C76" t="s">
-        <v>181</v>
+        <v>85</v>
       </c>
       <c r="D76" t="s">
-        <v>276</v>
+        <v>180</v>
       </c>
       <c r="E76" t="s">
-        <v>298</v>
+        <v>202</v>
       </c>
       <c r="F76" s="2">
         <v>32251</v>
       </c>
       <c r="G76" t="s">
-        <v>375</v>
+        <v>279</v>
       </c>
       <c r="H76" t="s">
-        <v>470</v>
+        <v>374</v>
       </c>
       <c r="I76" t="s">
-        <v>565</v>
+        <v>469</v>
       </c>
       <c r="J76" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="K76" t="s">
-        <v>598</v>
-      </c>
-      <c r="L76" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>87</v>
+        <v>576</v>
       </c>
       <c r="B77" s="2">
         <v>31107</v>
       </c>
       <c r="C77" t="s">
-        <v>182</v>
+        <v>86</v>
       </c>
       <c r="D77" t="s">
-        <v>277</v>
+        <v>181</v>
       </c>
       <c r="E77" t="s">
-        <v>298</v>
+        <v>202</v>
       </c>
       <c r="F77" s="2">
         <v>30166</v>
       </c>
       <c r="G77" t="s">
-        <v>376</v>
+        <v>280</v>
       </c>
       <c r="H77" t="s">
-        <v>471</v>
+        <v>375</v>
       </c>
       <c r="I77" t="s">
-        <v>566</v>
+        <v>470</v>
       </c>
       <c r="J77" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="K77" t="s">
-        <v>600</v>
-      </c>
-      <c r="L77" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>88</v>
+        <v>577</v>
       </c>
       <c r="B78" s="2">
         <v>28616</v>
       </c>
       <c r="C78" t="s">
-        <v>183</v>
+        <v>87</v>
       </c>
       <c r="D78" t="s">
-        <v>278</v>
+        <v>182</v>
       </c>
       <c r="E78" t="s">
-        <v>299</v>
+        <v>203</v>
       </c>
       <c r="F78" s="2">
         <v>34662</v>
       </c>
       <c r="G78" t="s">
-        <v>377</v>
+        <v>281</v>
       </c>
       <c r="H78" t="s">
-        <v>472</v>
+        <v>376</v>
       </c>
       <c r="I78" t="s">
-        <v>567</v>
+        <v>471</v>
       </c>
       <c r="J78" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="K78" t="s">
-        <v>600</v>
-      </c>
-      <c r="L78" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>89</v>
+        <v>578</v>
       </c>
       <c r="B79" s="2">
         <v>25119</v>
       </c>
       <c r="C79" t="s">
-        <v>184</v>
+        <v>88</v>
       </c>
       <c r="D79" t="s">
-        <v>279</v>
+        <v>183</v>
       </c>
       <c r="E79" t="s">
-        <v>299</v>
+        <v>203</v>
       </c>
       <c r="F79" s="2">
         <v>27176</v>
       </c>
       <c r="G79" t="s">
-        <v>378</v>
+        <v>282</v>
       </c>
       <c r="H79" t="s">
-        <v>473</v>
+        <v>377</v>
       </c>
       <c r="I79" t="s">
-        <v>568</v>
+        <v>472</v>
       </c>
       <c r="J79" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="K79" t="s">
-        <v>600</v>
-      </c>
-      <c r="L79" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>90</v>
+        <v>579</v>
       </c>
       <c r="B80" s="2">
         <v>24727</v>
       </c>
       <c r="C80" t="s">
-        <v>185</v>
+        <v>89</v>
       </c>
       <c r="D80" t="s">
-        <v>280</v>
+        <v>184</v>
       </c>
       <c r="E80" t="s">
-        <v>300</v>
+        <v>204</v>
       </c>
       <c r="F80" s="2">
         <v>26879</v>
       </c>
       <c r="G80" t="s">
-        <v>379</v>
+        <v>283</v>
       </c>
       <c r="H80" t="s">
-        <v>474</v>
+        <v>378</v>
       </c>
       <c r="I80" t="s">
-        <v>569</v>
+        <v>473</v>
       </c>
       <c r="J80" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="K80" t="s">
-        <v>600</v>
-      </c>
-      <c r="L80" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>91</v>
+        <v>580</v>
       </c>
       <c r="B81" s="2">
         <v>35119</v>
       </c>
       <c r="C81" t="s">
-        <v>186</v>
+        <v>90</v>
       </c>
       <c r="D81" t="s">
-        <v>281</v>
+        <v>185</v>
       </c>
       <c r="E81" t="s">
-        <v>299</v>
+        <v>203</v>
       </c>
       <c r="F81" s="2">
         <v>23741</v>
       </c>
       <c r="G81" t="s">
-        <v>380</v>
+        <v>284</v>
       </c>
       <c r="H81" t="s">
-        <v>475</v>
+        <v>379</v>
       </c>
       <c r="I81" t="s">
-        <v>570</v>
+        <v>474</v>
       </c>
       <c r="J81" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="K81" t="s">
-        <v>595</v>
-      </c>
-      <c r="L81" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>92</v>
+        <v>581</v>
       </c>
       <c r="B82" s="2">
         <v>32926</v>
       </c>
       <c r="C82" t="s">
-        <v>187</v>
+        <v>91</v>
       </c>
       <c r="D82" t="s">
-        <v>282</v>
+        <v>186</v>
       </c>
       <c r="E82" t="s">
-        <v>298</v>
+        <v>202</v>
       </c>
       <c r="F82" s="2">
         <v>27078</v>
       </c>
       <c r="G82" t="s">
-        <v>381</v>
+        <v>285</v>
       </c>
       <c r="H82" t="s">
-        <v>476</v>
+        <v>380</v>
       </c>
       <c r="I82" t="s">
-        <v>571</v>
+        <v>475</v>
       </c>
       <c r="J82" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="K82" t="s">
-        <v>595</v>
-      </c>
-      <c r="L82" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>93</v>
+        <v>582</v>
       </c>
       <c r="B83" s="2">
         <v>29118</v>
       </c>
       <c r="C83" t="s">
-        <v>188</v>
+        <v>92</v>
       </c>
       <c r="D83" t="s">
-        <v>283</v>
+        <v>187</v>
       </c>
       <c r="E83" t="s">
-        <v>298</v>
+        <v>202</v>
       </c>
       <c r="F83" s="2">
         <v>30201</v>
       </c>
       <c r="G83" t="s">
-        <v>382</v>
+        <v>286</v>
       </c>
       <c r="H83" t="s">
-        <v>477</v>
+        <v>381</v>
       </c>
       <c r="I83" t="s">
-        <v>572</v>
+        <v>476</v>
       </c>
       <c r="J83" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="K83" t="s">
-        <v>596</v>
-      </c>
-      <c r="L83" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>94</v>
+        <v>583</v>
       </c>
       <c r="B84" s="2">
         <v>33185</v>
       </c>
       <c r="C84" t="s">
-        <v>189</v>
+        <v>93</v>
       </c>
       <c r="D84" t="s">
-        <v>284</v>
+        <v>188</v>
       </c>
       <c r="E84" t="s">
-        <v>300</v>
+        <v>204</v>
       </c>
       <c r="F84" s="2">
         <v>34953</v>
       </c>
       <c r="G84" t="s">
-        <v>383</v>
+        <v>287</v>
       </c>
       <c r="H84" t="s">
-        <v>478</v>
+        <v>382</v>
       </c>
       <c r="I84" t="s">
-        <v>573</v>
+        <v>477</v>
       </c>
       <c r="J84" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="K84" t="s">
-        <v>591</v>
-      </c>
-      <c r="L84" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>95</v>
+        <v>584</v>
       </c>
       <c r="B85" s="2">
         <v>35013</v>
       </c>
       <c r="C85" t="s">
-        <v>190</v>
+        <v>94</v>
       </c>
       <c r="D85" t="s">
-        <v>285</v>
+        <v>189</v>
       </c>
       <c r="E85" t="s">
-        <v>297</v>
+        <v>201</v>
       </c>
       <c r="F85" s="2">
         <v>29398</v>
       </c>
       <c r="G85" t="s">
-        <v>384</v>
+        <v>288</v>
       </c>
       <c r="H85" t="s">
-        <v>479</v>
+        <v>383</v>
       </c>
       <c r="I85" t="s">
-        <v>574</v>
+        <v>478</v>
       </c>
       <c r="J85" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="K85" t="s">
-        <v>591</v>
-      </c>
-      <c r="L85" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>96</v>
+        <v>585</v>
       </c>
       <c r="B86" s="2">
         <v>30943</v>
       </c>
       <c r="C86" t="s">
-        <v>191</v>
+        <v>95</v>
       </c>
       <c r="D86" t="s">
-        <v>286</v>
+        <v>190</v>
       </c>
       <c r="E86" t="s">
-        <v>299</v>
+        <v>203</v>
       </c>
       <c r="F86" s="2">
         <v>27837</v>
       </c>
       <c r="G86" t="s">
-        <v>385</v>
+        <v>289</v>
       </c>
       <c r="H86" t="s">
-        <v>480</v>
+        <v>384</v>
       </c>
       <c r="I86" t="s">
-        <v>575</v>
+        <v>479</v>
       </c>
       <c r="J86" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="K86" t="s">
-        <v>594</v>
-      </c>
-      <c r="L86" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>97</v>
+        <v>586</v>
       </c>
       <c r="B87" s="2">
         <v>24471</v>
       </c>
       <c r="C87" t="s">
-        <v>192</v>
+        <v>96</v>
       </c>
       <c r="D87" t="s">
-        <v>287</v>
+        <v>191</v>
       </c>
       <c r="E87" t="s">
-        <v>298</v>
+        <v>202</v>
       </c>
       <c r="F87" s="2">
         <v>22758</v>
       </c>
       <c r="G87" t="s">
-        <v>386</v>
+        <v>290</v>
       </c>
       <c r="H87" t="s">
-        <v>481</v>
+        <v>385</v>
       </c>
       <c r="I87" t="s">
-        <v>576</v>
+        <v>480</v>
       </c>
       <c r="J87" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="K87" t="s">
-        <v>591</v>
-      </c>
-      <c r="L87" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>98</v>
+        <v>587</v>
       </c>
       <c r="B88" s="2">
         <v>28690</v>
       </c>
       <c r="C88" t="s">
-        <v>193</v>
+        <v>97</v>
       </c>
       <c r="D88" t="s">
-        <v>288</v>
+        <v>192</v>
       </c>
       <c r="E88" t="s">
-        <v>298</v>
+        <v>202</v>
       </c>
       <c r="F88" s="2">
         <v>34736</v>
       </c>
       <c r="G88" t="s">
-        <v>387</v>
+        <v>291</v>
       </c>
       <c r="H88" t="s">
-        <v>482</v>
+        <v>386</v>
       </c>
       <c r="I88" t="s">
-        <v>577</v>
+        <v>481</v>
       </c>
       <c r="J88" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="K88" t="s">
-        <v>591</v>
-      </c>
-      <c r="L88" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>99</v>
+        <v>588</v>
       </c>
       <c r="B89" s="2">
         <v>32204</v>
       </c>
       <c r="C89" t="s">
-        <v>194</v>
+        <v>98</v>
       </c>
       <c r="D89" t="s">
-        <v>289</v>
+        <v>193</v>
       </c>
       <c r="E89" t="s">
-        <v>300</v>
+        <v>204</v>
       </c>
       <c r="F89" s="2">
         <v>29022</v>
       </c>
       <c r="G89" t="s">
-        <v>388</v>
+        <v>292</v>
       </c>
       <c r="H89" t="s">
-        <v>483</v>
+        <v>387</v>
       </c>
       <c r="I89" t="s">
-        <v>578</v>
+        <v>482</v>
       </c>
       <c r="J89" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="K89" t="s">
-        <v>591</v>
-      </c>
-      <c r="L89" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>100</v>
+        <v>589</v>
       </c>
       <c r="B90" s="2">
         <v>27182</v>
       </c>
       <c r="C90" t="s">
-        <v>195</v>
+        <v>99</v>
       </c>
       <c r="D90" t="s">
-        <v>290</v>
+        <v>194</v>
       </c>
       <c r="E90" t="s">
-        <v>299</v>
+        <v>203</v>
       </c>
       <c r="F90" s="2">
         <v>30880</v>
       </c>
       <c r="G90" t="s">
-        <v>389</v>
+        <v>293</v>
       </c>
       <c r="H90" t="s">
-        <v>484</v>
+        <v>388</v>
       </c>
       <c r="I90" t="s">
-        <v>579</v>
+        <v>483</v>
       </c>
       <c r="J90" t="s">
+        <v>600</v>
+      </c>
+      <c r="K90" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>590</v>
-      </c>
-      <c r="K90" t="s">
-        <v>601</v>
-      </c>
-      <c r="L90" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12">
-      <c r="A91" t="s">
-        <v>101</v>
       </c>
       <c r="B91" s="2">
         <v>24267</v>
       </c>
       <c r="C91" t="s">
-        <v>196</v>
+        <v>100</v>
       </c>
       <c r="D91" t="s">
-        <v>291</v>
+        <v>195</v>
       </c>
       <c r="E91" t="s">
-        <v>300</v>
+        <v>204</v>
       </c>
       <c r="F91" s="2">
         <v>23110</v>
       </c>
       <c r="G91" t="s">
-        <v>390</v>
+        <v>294</v>
       </c>
       <c r="H91" t="s">
-        <v>485</v>
+        <v>389</v>
       </c>
       <c r="I91" t="s">
-        <v>580</v>
+        <v>484</v>
       </c>
       <c r="J91" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="K91" t="s">
-        <v>602</v>
-      </c>
-      <c r="L91" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>102</v>
+        <v>591</v>
       </c>
       <c r="B92" s="2">
         <v>31804</v>
       </c>
       <c r="C92" t="s">
-        <v>197</v>
+        <v>101</v>
       </c>
       <c r="D92" t="s">
-        <v>292</v>
+        <v>196</v>
       </c>
       <c r="E92" t="s">
-        <v>299</v>
+        <v>203</v>
       </c>
       <c r="F92" s="2">
         <v>28120</v>
       </c>
       <c r="G92" t="s">
-        <v>391</v>
+        <v>295</v>
       </c>
       <c r="H92" t="s">
-        <v>486</v>
+        <v>390</v>
       </c>
       <c r="I92" t="s">
-        <v>581</v>
+        <v>485</v>
       </c>
       <c r="J92" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="K92" t="s">
-        <v>591</v>
-      </c>
-      <c r="L92" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>103</v>
+        <v>592</v>
       </c>
       <c r="B93" s="2">
         <v>29632</v>
       </c>
       <c r="C93" t="s">
-        <v>198</v>
+        <v>102</v>
       </c>
       <c r="D93" t="s">
-        <v>293</v>
+        <v>197</v>
       </c>
       <c r="E93" t="s">
-        <v>299</v>
+        <v>203</v>
       </c>
       <c r="F93" s="2">
         <v>25713</v>
       </c>
       <c r="G93" t="s">
-        <v>392</v>
+        <v>296</v>
       </c>
       <c r="H93" t="s">
-        <v>487</v>
+        <v>391</v>
       </c>
       <c r="I93" t="s">
-        <v>582</v>
+        <v>486</v>
       </c>
       <c r="J93" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="K93" t="s">
-        <v>595</v>
-      </c>
-      <c r="L93" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>104</v>
+        <v>593</v>
       </c>
       <c r="B94" s="2">
         <v>30757</v>
       </c>
       <c r="C94" t="s">
-        <v>199</v>
+        <v>103</v>
       </c>
       <c r="D94" t="s">
-        <v>294</v>
+        <v>198</v>
       </c>
       <c r="E94" t="s">
-        <v>297</v>
+        <v>201</v>
       </c>
       <c r="F94" s="2">
         <v>35618</v>
       </c>
       <c r="G94" t="s">
-        <v>393</v>
+        <v>297</v>
       </c>
       <c r="H94" t="s">
-        <v>488</v>
+        <v>392</v>
       </c>
       <c r="I94" t="s">
-        <v>583</v>
+        <v>487</v>
       </c>
       <c r="J94" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="K94" t="s">
-        <v>600</v>
-      </c>
-      <c r="L94" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>105</v>
+        <v>594</v>
       </c>
       <c r="B95" s="2">
         <v>26845</v>
       </c>
       <c r="C95" t="s">
-        <v>200</v>
+        <v>104</v>
       </c>
       <c r="D95" t="s">
-        <v>295</v>
+        <v>199</v>
       </c>
       <c r="E95" t="s">
-        <v>298</v>
+        <v>202</v>
       </c>
       <c r="F95" s="2">
         <v>34909</v>
       </c>
       <c r="G95" t="s">
-        <v>394</v>
+        <v>298</v>
       </c>
       <c r="H95" t="s">
-        <v>489</v>
+        <v>393</v>
       </c>
       <c r="I95" t="s">
-        <v>584</v>
+        <v>488</v>
       </c>
       <c r="J95" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="K95" t="s">
-        <v>591</v>
-      </c>
-      <c r="L95" s="2">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>106</v>
+        <v>595</v>
       </c>
       <c r="B96" s="2">
         <v>30378</v>
       </c>
       <c r="C96" t="s">
-        <v>201</v>
+        <v>105</v>
       </c>
       <c r="D96" t="s">
-        <v>296</v>
+        <v>200</v>
       </c>
       <c r="E96" t="s">
-        <v>298</v>
+        <v>202</v>
       </c>
       <c r="F96" s="2">
         <v>27357</v>
       </c>
       <c r="G96" t="s">
-        <v>395</v>
+        <v>299</v>
       </c>
       <c r="H96" t="s">
+        <v>394</v>
+      </c>
+      <c r="I96" t="s">
+        <v>489</v>
+      </c>
+      <c r="J96" t="s">
+        <v>600</v>
+      </c>
+      <c r="K96" t="s">
         <v>490</v>
       </c>
-      <c r="I96" t="s">
-        <v>585</v>
-      </c>
-      <c r="J96" t="s">
-        <v>590</v>
-      </c>
-      <c r="K96" t="s">
-        <v>591</v>
-      </c>
-      <c r="L96" s="2">
-        <v>45937</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>